--- a/outputs-HGR-r202/test-g__Mesosutterella_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Mesosutterella_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Row</t>
   </si>
@@ -22,9 +22,15 @@
     <t>even_MAG-GUT12991.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13170.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13637.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13881.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT14050.fa</t>
   </si>
   <si>
@@ -34,31 +40,103 @@
     <t>even_MAG-GUT14250.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT14532.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15246.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15625.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16156.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT17271.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1763.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT18195.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18210.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18312.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT18361.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT18974.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT19408.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT19592.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25075.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25223.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25263.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT31546.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT31872.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT32469.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT36148.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT38016.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT38999.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT39245.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT43254.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57726.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58214.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61409.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61735.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT62370.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81029.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81145.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81432.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81523.fa</t>
   </si>
   <si>
     <t>1-s__Mesosutterella massiliensis</t>
@@ -115,7 +193,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -129,13 +207,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -157,10 +235,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.096543804831809577</v>
+        <v>0.070082392640902991</v>
       </c>
       <c r="C3">
-        <v>0.90345619516819042</v>
+        <v>0.92991760735909701</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -171,10 +249,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.085232392200465301</v>
+        <v>0.096543804831809577</v>
       </c>
       <c r="C4">
-        <v>0.9147676077995347</v>
+        <v>0.90345619516819042</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -185,10 +263,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.096543804831809577</v>
+        <v>0.085690964559152483</v>
       </c>
       <c r="C5">
-        <v>0.90345619516819042</v>
+        <v>0.91430903544084763</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -199,10 +277,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.082813107653557538</v>
+        <v>0.085232392200465301</v>
       </c>
       <c r="C6">
-        <v>0.91718689234644246</v>
+        <v>0.9147676077995347</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -213,10 +291,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.09127158728749285</v>
+        <v>0.096543804831809577</v>
       </c>
       <c r="C7">
-        <v>0.90872841271250715</v>
+        <v>0.90345619516819042</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -227,10 +305,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.096430841873870077</v>
+        <v>0.082813107653557538</v>
       </c>
       <c r="C8">
-        <v>0.90356915812613003</v>
+        <v>0.91718689234644246</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -241,10 +319,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.090606544594320382</v>
+        <v>0.090479152382882969</v>
       </c>
       <c r="C9">
-        <v>0.90939345540567962</v>
+        <v>0.90952084761711705</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -255,10 +333,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.085783849242988541</v>
+        <v>0.076790578283734479</v>
       </c>
       <c r="C10">
-        <v>0.91421615075701146</v>
+        <v>0.92320942171626552</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -269,10 +347,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.089387733037781136</v>
+        <v>0.070100864459928358</v>
       </c>
       <c r="C11">
-        <v>0.91061226696221886</v>
+        <v>0.92989913554007164</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -283,10 +361,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.10074971865584081</v>
+        <v>0.089916885836615612</v>
       </c>
       <c r="C12">
-        <v>0.89925028134415919</v>
+        <v>0.91008311416338439</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -297,10 +375,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.072700079963967768</v>
+        <v>0.087064560128727431</v>
       </c>
       <c r="C13">
-        <v>0.92729992003603223</v>
+        <v>0.91293543987127257</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -311,10 +389,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.083178628829156498</v>
+        <v>0.09127158728749285</v>
       </c>
       <c r="C14">
-        <v>0.9168213711708435</v>
+        <v>0.90872841271250715</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -325,12 +403,376 @@
         <v>14</v>
       </c>
       <c r="B15">
+        <v>0.087103119926190464</v>
+      </c>
+      <c r="C15">
+        <v>0.91289688007380954</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.096841263666308949</v>
+      </c>
+      <c r="C16">
+        <v>0.90315873633369104</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.093807714375885407</v>
+      </c>
+      <c r="C17">
+        <v>0.90619228562411458</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.096430841873870077</v>
+      </c>
+      <c r="C18">
+        <v>0.90356915812613003</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.090606544594320382</v>
+      </c>
+      <c r="C19">
+        <v>0.90939345540567962</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.087420308303130745</v>
+      </c>
+      <c r="C20">
+        <v>0.91257969169686926</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.081269182459071776</v>
+      </c>
+      <c r="C21">
+        <v>0.91873081754092822</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.087024267974679437</v>
+      </c>
+      <c r="C22">
+        <v>0.91297573202532056</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.080704048565220732</v>
+      </c>
+      <c r="C23">
+        <v>0.91929595143477927</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.085783849242988541</v>
+      </c>
+      <c r="C24">
+        <v>0.91421615075701146</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.089387733037781136</v>
+      </c>
+      <c r="C25">
+        <v>0.91061226696221886</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.087265577392591331</v>
+      </c>
+      <c r="C26">
+        <v>0.91273442260740867</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.10074971865584081</v>
+      </c>
+      <c r="C27">
+        <v>0.89925028134415919</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.091086137009644408</v>
+      </c>
+      <c r="C28">
+        <v>0.90891386299035559</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.09448973555507878</v>
+      </c>
+      <c r="C29">
+        <v>0.90551026444492122</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.072700079963967768</v>
+      </c>
+      <c r="C30">
+        <v>0.92729992003603223</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.11445899018760497</v>
+      </c>
+      <c r="C31">
+        <v>0.88554100981239503</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.11497625505713527</v>
+      </c>
+      <c r="C32">
+        <v>0.88502374494286473</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.095461360814024454</v>
+      </c>
+      <c r="C33">
+        <v>0.90453863918597555</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.14332899372278385</v>
+      </c>
+      <c r="C34">
+        <v>0.85667100627721615</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.14177905692087656</v>
+      </c>
+      <c r="C35">
+        <v>0.85822094307912344</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.086776036048585539</v>
+      </c>
+      <c r="C36">
+        <v>0.91322396395141447</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.083178628829156498</v>
+      </c>
+      <c r="C37">
+        <v>0.9168213711708435</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.087327144208277474</v>
+      </c>
+      <c r="C38">
+        <v>0.91267285579172264</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>0.080874436537934358</v>
       </c>
-      <c r="C15">
+      <c r="C39">
         <v>0.91912556346206575</v>
       </c>
-      <c r="D15">
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.11753238123390752</v>
+      </c>
+      <c r="C40">
+        <v>0.88246761876609248</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.08596820404501615</v>
+      </c>
+      <c r="C41">
+        <v>0.91403179595498385</v>
+      </c>
+      <c r="D41">
         <v>2</v>
       </c>
     </row>
